--- a/backend/data/hearing_data/bench_Oct_split.xlsx
+++ b/backend/data/hearing_data/bench_Oct_split.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Shared Folder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\capsule\backend\data\hearing_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BE0A9-52AE-4D4E-B330-D93A3121E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D58FF4-40E6-4AB4-BE95-CC899F6731D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bench_Oct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2621,13 +2632,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection sqref="A1:O362"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="H337" sqref="H337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
